--- a/JupyterNB/data.xlsx
+++ b/JupyterNB/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aerioeus\git\pythondocx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aerioeus\git\pythondocx\JupyterNB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8D1D07-613C-4008-9AB1-A37F53EA5BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBB6DE7-7C42-4746-8A9C-D4C9FDCEE328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4344" yWindow="1980" windowWidth="24972" windowHeight="20952" xr2:uid="{F67CD2AF-D586-4548-92DA-A3B7B3268691}"/>
   </bookViews>
@@ -36,46 +36,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>John</t>
   </si>
   <si>
-    <t>123 Elm Street</t>
-  </si>
-  <si>
-    <t>Springfield</t>
-  </si>
-  <si>
     <t>Jane</t>
   </si>
   <si>
-    <t>456 Oak Avenue</t>
-  </si>
-  <si>
-    <t>Shelbyville</t>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Meyer</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>PGF_old</t>
+  </si>
+  <si>
+    <t>a+b=c</t>
+  </si>
+  <si>
+    <t>d+f=k</t>
+  </si>
+  <si>
+    <t>PGF_new</t>
+  </si>
+  <si>
+    <t>j=k*j</t>
+  </si>
+  <si>
+    <t>M+d=Z</t>
+  </si>
+  <si>
+    <t>Basevalue_old</t>
+  </si>
+  <si>
+    <t>Basevalue_new</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>12.01.2024</t>
+  </si>
+  <si>
+    <t>14.02.2024</t>
+  </si>
+  <si>
+    <t>Firstname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,50 +465,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3765F66-FB9A-40A4-9A42-988F8A3949A2}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
